--- a/ドキュメント/ビジネス/co-co_事業計画_財務モデル_2年.xlsx
+++ b/ドキュメント/ビジネス/co-co_事業計画_財務モデル_2年.xlsx
@@ -2070,8 +2070,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4255,7 +4255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -4278,6 +4278,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3" ht="22" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
@@ -4642,6 +4643,106 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI活用人材育成（2ヶ月集中）</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>非エンジニアが2ヶ月でアプリ/エージェントを完成させる集中研修</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>初回2時間全体研修 + 週1回30分個別面談×8回</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
